--- a/Excel2Json/bin/ep02/ep02_2.xlsx
+++ b/Excel2Json/bin/ep02/ep02_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C3CF9-85AC-4C2B-824B-BE732B52F328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8301CD1E-AD7D-4865-ADB3-A8C2CEDE51FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="201210" sheetId="20" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="119">
   <si>
     <t>이름</t>
   </si>
@@ -216,9 +216,6 @@
     <t>표정</t>
   </si>
   <si>
-    <t>종류</t>
-  </si>
-  <si>
     <t>내용</t>
   </si>
   <si>
@@ -231,15 +228,9 @@
     <t>expression</t>
   </si>
   <si>
-    <t>kind</t>
-  </si>
-  <si>
     <t>contents</t>
   </si>
   <si>
-    <t>Main Char</t>
-  </si>
-  <si>
     <t>라우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>201210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,6 +651,30 @@
   </si>
   <si>
     <t>그럼요. 꼭 연락 줘요..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,104 +770,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>418594</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171306</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83E3F59-BE0A-421D-822B-87E15D5D2A84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8048625" y="1743075"/>
-          <a:ext cx="4047619" cy="1152381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>418594</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171306</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD100FC-8B76-456D-9D7F-39A72639F3B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8048625" y="1743075"/>
-          <a:ext cx="4047619" cy="1152381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1156,25 +1069,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1182,174 +1095,168 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1361,23 +1268,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAA3C99-ED40-43BB-9F8D-867FCA47F6FB}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1385,94 +1294,88 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33">
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33">
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1487,19 +1390,19 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1510,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1518,351 +1421,335 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
+      <c r="D26" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1871,19 +1758,19 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1894,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1902,256 +1789,249 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2165,14 +2045,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2183,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2191,794 +2071,794 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>78</v>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep02/ep02_2.xlsx
+++ b/Excel2Json/bin/ep02/ep02_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8301CD1E-AD7D-4865-ADB3-A8C2CEDE51FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFEFB7C-9E2A-4C37-9275-D88E00C4ABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10060" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="201210" sheetId="20" r:id="rId1"/>
@@ -1075,11 +1075,11 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1274,11 +1274,11 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1336,7 +1336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="33">
+    <row r="6" spans="1:5" ht="34">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1393,11 +1393,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1761,11 +1761,11 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2043,11 +2043,11 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Excel2Json/bin/ep02/ep02_2.xlsx
+++ b/Excel2Json/bin/ep02/ep02_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFEFB7C-9E2A-4C37-9275-D88E00C4ABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6F455-E429-437A-817F-141A48F01191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10060" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="6260" yWindow="0" windowWidth="19340" windowHeight="13800" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="201210" sheetId="20" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="120">
   <si>
     <t>이름</t>
   </si>
@@ -675,6 +675,10 @@
   </si>
   <si>
     <t>Cop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Citizen_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1163,6 +1167,9 @@
       </c>
       <c r="B7">
         <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -1390,7 +1397,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1468,6 +1475,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1521,6 +1531,9 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1556,6 +1569,9 @@
     <row r="13" spans="1:4">
       <c r="B13">
         <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>35</v>
@@ -1758,7 +1774,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2039,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBF254B-DE83-4E29-A964-18997BD03B04}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C43" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep02/ep02_2.xlsx
+++ b/Excel2Json/bin/ep02/ep02_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6F455-E429-437A-817F-141A48F01191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C4D36-6ADE-4672-BB26-C8EB78A776AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="0" windowWidth="19340" windowHeight="13800" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="201210" sheetId="20" r:id="rId1"/>
@@ -674,11 +674,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC_Citizen_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Police</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2011E5D-12BD-4D46-8B90-1B0215FF932B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>25</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>31</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>35</v>
@@ -2055,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBF254B-DE83-4E29-A964-18997BD03B04}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C43" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep02/ep02_2.xlsx
+++ b/Excel2Json/bin/ep02/ep02_2.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C4D36-6ADE-4672-BB26-C8EB78A776AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0961A3-1FED-4B57-914A-97CF6719A189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="8" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="201210" sheetId="20" r:id="rId1"/>
     <sheet name="201211" sheetId="33" r:id="rId2"/>
     <sheet name="201212" sheetId="32" r:id="rId3"/>
     <sheet name="201213" sheetId="34" r:id="rId4"/>
-    <sheet name="201220" sheetId="35" r:id="rId5"/>
+    <sheet name="201220_1" sheetId="35" r:id="rId5"/>
+    <sheet name="201220_2" sheetId="37" r:id="rId6"/>
+    <sheet name="201220_3" sheetId="36" r:id="rId7"/>
+    <sheet name="201220_3 (2)" sheetId="38" r:id="rId8"/>
+    <sheet name="201220_3 (3)" sheetId="39" r:id="rId9"/>
+    <sheet name="201220_3 (4)" sheetId="40" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,6 +49,40 @@
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{370B9A26-3BD6-4AD8-BCD9-2A6F57F4E96C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DF0E92EB-BF87-4C28-8B54-B6E6081419DA}">
       <text>
         <r>
           <rPr>
@@ -207,8 +246,144 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4826AD8E-18C6-452C-A8B3-36F987ADA64A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CF8E7D17-5C3D-43FB-94D0-7141174B536E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{960DDB55-1CA3-42D8-8F79-E5280C47B95B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C0AFC2BF-C83A-4BF9-BC6B-D9ABCF07F8D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="122">
   <si>
     <t>이름</t>
   </si>
@@ -426,10 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -679,6 +850,18 @@
   </si>
   <si>
     <t>Police</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201220_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201220_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201220_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1113,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1127,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1141,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -1155,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -1169,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -1183,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -1197,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
@@ -1211,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
@@ -1233,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>19</v>
@@ -1247,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>20</v>
@@ -1264,6 +1447,813 @@
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6C985F-1BB2-49EB-BEE5-052ADB0F3800}">
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1301,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1315,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1329,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1396,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2011E5D-12BD-4D46-8B90-1B0215FF932B}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1434,7 +2424,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1448,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1462,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
@@ -1476,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>25</v>
@@ -1490,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -1504,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1518,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
@@ -1532,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>31</v>
@@ -1546,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>32</v>
@@ -1560,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
@@ -1571,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>35</v>
@@ -1585,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
@@ -1599,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>37</v>
@@ -1613,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>38</v>
@@ -1627,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>39</v>
@@ -1641,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>40</v>
@@ -1655,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>41</v>
@@ -1677,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>43</v>
@@ -1691,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>44</v>
@@ -1705,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>46</v>
@@ -1719,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>45</v>
@@ -1733,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>47</v>
@@ -1755,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>49</v>
@@ -1797,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1811,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1825,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1839,7 +2829,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
@@ -1853,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>51</v>
@@ -1867,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>52</v>
@@ -1881,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>53</v>
@@ -1895,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>54</v>
@@ -1917,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>39</v>
@@ -1931,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>55</v>
@@ -1945,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>41</v>
@@ -1959,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>43</v>
@@ -1973,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>44</v>
@@ -1987,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>46</v>
@@ -2001,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>45</v>
@@ -2015,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>47</v>
@@ -2037,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>49</v>
@@ -2055,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBF254B-DE83-4E29-A964-18997BD03B04}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C43" sqref="C42:C43"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2068,7 +3058,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2079,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -2093,7 +3083,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2107,7 +3097,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2118,36 +3108,984 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B3362B-EDBB-4B51-A50F-A9F2CC894DFE}">
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C440A3E4-16BF-4DA8-A07B-DCF51AAFB3D4}">
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BBA36B-3548-4C68-A79B-3DD6DA3A1207}">
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593EA9FA-C278-4EDE-98E1-2C1FABF8FC1B}">
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -2157,24 +4095,24 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2185,24 +4123,24 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2213,24 +4151,24 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2241,24 +4179,24 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2269,24 +4207,24 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2297,24 +4235,24 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2325,24 +4263,24 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2353,38 +4291,38 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2395,38 +4333,38 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2437,24 +4375,24 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2465,24 +4403,24 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2493,24 +4431,24 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2521,24 +4459,24 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2549,24 +4487,24 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2577,24 +4515,24 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2605,24 +4543,24 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2633,80 +4571,80 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2717,24 +4655,24 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2745,24 +4683,24 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2773,24 +4711,24 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2801,24 +4739,24 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2829,24 +4767,24 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2857,24 +4795,24 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
